--- a/org.imt.tdl.sbfl.evaluation/evaluationData/K3FSM.Overall.xlsx
+++ b/org.imt.tdl.sbfl.evaluation/evaluationData/K3FSM.Overall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\labtop\GitHub\xtdl_FaultLocalization\org.imt.tdl.sbfl.evaluation\evaluationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1622148C-C9D4-44A6-BD1A-A556C18D062B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B537AF-A586-4FC7-9E7F-494F794EE90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,10 +436,15 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1091,7 +1096,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1746,7 +1751,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2401,7 +2406,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3056,10 +3061,13 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/org.imt.tdl.sbfl.evaluation/evaluationData/K3FSM.Overall.xlsx
+++ b/org.imt.tdl.sbfl.evaluation/evaluationData/K3FSM.Overall.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\labtop\GitHub\xtdl_FaultLocalization\org.imt.tdl.sbfl.evaluation\evaluationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B537AF-A586-4FC7-9E7F-494F794EE90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AA20B8-4C7B-46A0-A58D-1DC75848DD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BitShifting" sheetId="1" r:id="rId1"/>
-    <sheet name="TrafficLight" sheetId="2" r:id="rId2"/>
+    <sheet name="TrafficLight" sheetId="2" r:id="rId1"/>
+    <sheet name="BitShifting" sheetId="1" r:id="rId2"/>
     <sheet name="EdgeDetector" sheetId="3" r:id="rId3"/>
     <sheet name="StringToLowerCase" sheetId="4" r:id="rId4"/>
     <sheet name="StringToUpperCase" sheetId="5" r:id="rId5"/>
@@ -131,12 +131,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,8 +175,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,18 +461,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329A0ED7-F343-42D7-8475-257553FBAFF3}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -483,31 +510,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.27300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C2">
-        <v>0.41199999999999998</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D2">
-        <v>0.33400000000000002</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E2">
-        <v>0.59099999999999997</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F2">
-        <v>0.46899999999999997</v>
+        <v>0.44</v>
       </c>
       <c r="G2">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="H2">
-        <v>0.90900000000000003</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I2">
-        <v>0.52700000000000002</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="J2">
-        <v>0.40600000000000003</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -515,31 +542,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>9.0999999999999998E-2</v>
+        <v>0.111</v>
       </c>
       <c r="C3">
-        <v>0.112</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D3">
-        <v>5.8999999999999997E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="E3">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G3">
         <v>0.182</v>
       </c>
-      <c r="F3">
-        <v>0.222</v>
-      </c>
-      <c r="G3">
-        <v>0.13</v>
-      </c>
       <c r="H3">
-        <v>0.27300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I3">
-        <v>0.33200000000000002</v>
+        <v>0.435</v>
       </c>
       <c r="J3">
-        <v>0.24099999999999999</v>
+        <v>0.29899999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -547,31 +574,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.54500000000000004</v>
+        <v>0.111</v>
       </c>
       <c r="C4">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="D4">
-        <v>0.36099999999999999</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E4">
-        <v>0.72699999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F4">
-        <v>0.56999999999999995</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="G4">
-        <v>0.30099999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="H4">
-        <v>0.90900000000000003</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="I4">
-        <v>0.67900000000000005</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="J4">
-        <v>0.25</v>
+        <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -579,31 +606,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.27300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C5">
-        <v>0.41199999999999998</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D5">
-        <v>0.33400000000000002</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E5">
-        <v>0.59099999999999997</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F5">
-        <v>0.46899999999999997</v>
+        <v>0.44</v>
       </c>
       <c r="G5">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="H5">
-        <v>0.90900000000000003</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I5">
-        <v>0.52700000000000002</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="J5">
-        <v>0.40600000000000003</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -611,31 +638,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.27300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C6">
-        <v>0.42</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D6">
-        <v>0.32800000000000001</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E6">
-        <v>0.59099999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>0.48399999999999999</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G6">
-        <v>0.34899999999999998</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="H6">
-        <v>0.90900000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="I6">
-        <v>0.54800000000000004</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="J6">
-        <v>0.39300000000000002</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -643,31 +670,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>9.0999999999999998E-2</v>
+        <v>0.222</v>
       </c>
       <c r="C7">
-        <v>0.29399999999999998</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="D7">
-        <v>0.26200000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="E7">
-        <v>0.182</v>
-      </c>
-      <c r="F7">
-        <v>0.35</v>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.34899999999999998</v>
       </c>
       <c r="G7">
-        <v>0.29699999999999999</v>
+        <v>0.216</v>
       </c>
       <c r="H7">
-        <v>0.27300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I7">
-        <v>0.40699999999999997</v>
+        <v>0.44</v>
       </c>
       <c r="J7">
-        <v>0.33900000000000002</v>
+        <v>0.29299999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -675,31 +702,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>9.0999999999999998E-2</v>
+        <v>0.222</v>
       </c>
       <c r="C8">
-        <v>0.29399999999999998</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="D8">
-        <v>0.26200000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="E8">
-        <v>0.182</v>
-      </c>
-      <c r="F8">
-        <v>0.35</v>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.34899999999999998</v>
       </c>
       <c r="G8">
-        <v>0.29699999999999999</v>
+        <v>0.216</v>
       </c>
       <c r="H8">
-        <v>0.27300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I8">
-        <v>0.40699999999999997</v>
+        <v>0.44</v>
       </c>
       <c r="J8">
-        <v>0.33900000000000002</v>
+        <v>0.29299999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -707,31 +734,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.27300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C9">
-        <v>0.41199999999999998</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D9">
-        <v>0.33400000000000002</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E9">
-        <v>0.59099999999999997</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F9">
-        <v>0.46899999999999997</v>
+        <v>0.44</v>
       </c>
       <c r="G9">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="H9">
-        <v>0.90900000000000003</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I9">
-        <v>0.52700000000000002</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="J9">
-        <v>0.40600000000000003</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -739,31 +766,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.27300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C10">
-        <v>0.41199999999999998</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D10">
-        <v>0.33400000000000002</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E10">
-        <v>0.27300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F10">
-        <v>0.44500000000000001</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G10">
-        <v>0.35799999999999998</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="H10">
-        <v>0.27300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I10">
-        <v>0.47899999999999998</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="J10">
-        <v>0.38800000000000001</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -771,31 +798,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>9.0999999999999998E-2</v>
+        <v>0.111</v>
       </c>
       <c r="C11">
-        <v>0.112</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D11">
-        <v>5.8999999999999997E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="E11">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="G11">
         <v>0.182</v>
       </c>
-      <c r="F11">
-        <v>0.221</v>
-      </c>
-      <c r="G11">
-        <v>0.13100000000000001</v>
-      </c>
       <c r="H11">
-        <v>0.27300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I11">
-        <v>0.32900000000000001</v>
+        <v>0.435</v>
       </c>
       <c r="J11">
-        <v>0.24299999999999999</v>
+        <v>0.29899999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -803,31 +830,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.27300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C12">
-        <v>0.41199999999999998</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D12">
-        <v>0.33400000000000002</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E12">
-        <v>0.59099999999999997</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F12">
-        <v>0.46899999999999997</v>
+        <v>0.44</v>
       </c>
       <c r="G12">
-        <v>0.36099999999999999</v>
+        <v>0.308</v>
       </c>
       <c r="H12">
-        <v>0.90900000000000003</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I12">
-        <v>0.52700000000000002</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="J12">
-        <v>0.40600000000000003</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -835,31 +862,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.27300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C13">
-        <v>0.41399999999999998</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D13">
-        <v>0.33200000000000002</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="E13">
-        <v>0.59099999999999997</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F13">
-        <v>0.47299999999999998</v>
+        <v>0.47</v>
       </c>
       <c r="G13">
-        <v>0.35799999999999998</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="H13">
-        <v>0.90900000000000003</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="I13">
-        <v>0.53200000000000003</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="J13">
-        <v>0.40200000000000002</v>
+        <v>0.34599999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -867,31 +894,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.72699999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="C14">
-        <v>0.60399999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="D14">
-        <v>0.28599999999999998</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="E14">
-        <v>0.72699999999999998</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F14">
-        <v>0.66200000000000003</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="G14">
-        <v>0.28100000000000003</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="H14">
-        <v>0.90900000000000003</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="I14">
-        <v>0.71899999999999997</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="J14">
-        <v>0.30399999999999999</v>
+        <v>0.32100000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -899,31 +926,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.27300000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C15">
-        <v>0.42</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="D15">
-        <v>0.32800000000000001</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E15">
-        <v>0.59099999999999997</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F15">
-        <v>0.47699999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="G15">
-        <v>0.35399999999999998</v>
+        <v>0.308</v>
       </c>
       <c r="H15">
-        <v>0.90900000000000003</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I15">
-        <v>0.53500000000000003</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="J15">
-        <v>0.39800000000000002</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -931,31 +958,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.27300000000000002</v>
+        <v>0.111</v>
       </c>
       <c r="C16">
-        <v>0.41199999999999998</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D16">
-        <v>0.33400000000000002</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="E16">
-        <v>0.59099999999999997</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F16">
-        <v>0.53100000000000003</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="G16">
-        <v>0.29799999999999999</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="H16">
-        <v>0.90900000000000003</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="I16">
-        <v>0.65</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J16">
-        <v>0.27800000000000002</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -963,31 +990,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>9.0999999999999998E-2</v>
+        <v>0.111</v>
       </c>
       <c r="C17">
-        <v>9.0999999999999998E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="E17">
         <v>0.5</v>
       </c>
       <c r="F17">
-        <v>0.38600000000000001</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="G17">
-        <v>0.17799999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="H17">
-        <v>0.90900000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="I17">
-        <v>0.68200000000000005</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="J17">
-        <v>0.35699999999999998</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -995,31 +1022,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>9.0999999999999998E-2</v>
+        <v>0.111</v>
       </c>
       <c r="C18">
-        <v>0.23499999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D18">
-        <v>0.21199999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E18">
         <v>0.5</v>
       </c>
-      <c r="F18">
-        <v>0.39200000000000002</v>
+      <c r="F18" s="4">
+        <v>0.38700000000000001</v>
       </c>
       <c r="G18">
-        <v>0.28000000000000003</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="H18">
-        <v>0.90900000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="I18">
-        <v>0.54800000000000004</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="J18">
-        <v>0.40600000000000003</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1027,28 +1054,28 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.63600000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="C19">
-        <v>0.60399999999999998</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="D19">
-        <v>9.6000000000000002E-2</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="E19">
-        <v>0.77300000000000002</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="F19">
-        <v>0.75700000000000001</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="G19">
-        <v>4.8000000000000001E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="H19">
-        <v>0.90900000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="I19">
-        <v>0.90900000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1059,31 +1086,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>9.0999999999999998E-2</v>
+        <v>0.111</v>
       </c>
       <c r="C20">
-        <v>9.9000000000000005E-2</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D20">
-        <v>2.5999999999999999E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="E20">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="F20">
-        <v>0.14299999999999999</v>
+        <v>0.222</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.25900000000000001</v>
       </c>
       <c r="G20">
-        <v>8.5999999999999993E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="H20">
-        <v>9.0999999999999998E-2</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I20">
-        <v>0.187</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="J20">
-        <v>0.16900000000000001</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1092,14 +1119,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329A0ED7-F343-42D7-8475-257553FBAFF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1138,31 +1172,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C2">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E2">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G2">
         <v>0.36099999999999999</v>
       </c>
-      <c r="D2">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="E2">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F2">
-        <v>0.44</v>
-      </c>
-      <c r="G2">
-        <v>0.308</v>
-      </c>
       <c r="H2">
-        <v>0.33300000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I2">
-        <v>0.51900000000000002</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="J2">
-        <v>0.374</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1170,31 +1204,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.111</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C3">
-        <v>0.16700000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="D3">
-        <v>0.11600000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E3">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="F3">
-        <v>0.30099999999999999</v>
+        <v>0.182</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.222</v>
       </c>
       <c r="G3">
-        <v>0.182</v>
+        <v>0.13</v>
       </c>
       <c r="H3">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="I3">
-        <v>0.435</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="J3">
-        <v>0.29899999999999999</v>
+        <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1202,31 +1236,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.111</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="C4">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="D4">
-        <v>0.28999999999999998</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="E4">
-        <v>0.44400000000000001</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="F4">
-        <v>0.53900000000000003</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G4">
-        <v>0.24</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="H4">
-        <v>0.77800000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I4">
-        <v>0.69899999999999995</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="J4">
-        <v>0.20899999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -1234,31 +1268,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C5">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F5">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G5">
         <v>0.36099999999999999</v>
       </c>
-      <c r="D5">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F5">
-        <v>0.44</v>
-      </c>
-      <c r="G5">
-        <v>0.308</v>
-      </c>
       <c r="H5">
-        <v>0.33300000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I5">
-        <v>0.51900000000000002</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="J5">
-        <v>0.374</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1266,31 +1300,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C6">
-        <v>0.36099999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="D6">
-        <v>0.25700000000000001</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="F6">
-        <v>0.46800000000000003</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="G6">
-        <v>0.29099999999999998</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="H6">
-        <v>0.88900000000000001</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I6">
-        <v>0.57399999999999995</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="J6">
-        <v>0.35499999999999998</v>
+        <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -1298,31 +1332,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.222</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C7">
-        <v>0.25900000000000001</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D7">
-        <v>0.14899999999999999</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="E7">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F7">
-        <v>0.34899999999999998</v>
+        <v>0.182</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.35</v>
       </c>
       <c r="G7">
-        <v>0.216</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="H7">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="I7">
-        <v>0.44</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="J7">
-        <v>0.29299999999999998</v>
+        <v>0.33900000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1330,31 +1364,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.222</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C8">
-        <v>0.25900000000000001</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="D8">
-        <v>0.14899999999999999</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="E8">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F8">
-        <v>0.34899999999999998</v>
+        <v>0.182</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.35</v>
       </c>
       <c r="G8">
-        <v>0.216</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="H8">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="I8">
-        <v>0.44</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="J8">
-        <v>0.29299999999999998</v>
+        <v>0.33900000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -1362,31 +1396,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C9">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G9">
         <v>0.36099999999999999</v>
       </c>
-      <c r="D9">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="E9">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F9">
-        <v>0.44</v>
-      </c>
-      <c r="G9">
-        <v>0.308</v>
-      </c>
       <c r="H9">
-        <v>0.33300000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I9">
-        <v>0.51900000000000002</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="J9">
-        <v>0.374</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1394,31 +1428,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C10">
-        <v>0.36099999999999999</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="D10">
-        <v>0.25700000000000001</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="E10">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="F10">
-        <v>0.42599999999999999</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="G10">
-        <v>0.30399999999999999</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="H10">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="I10">
-        <v>0.49099999999999999</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="J10">
-        <v>0.36299999999999999</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1426,31 +1460,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.111</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C11">
-        <v>0.16700000000000001</v>
+        <v>0.112</v>
       </c>
       <c r="D11">
-        <v>0.11600000000000001</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E11">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="F11">
-        <v>0.30099999999999999</v>
+        <v>0.182</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.221</v>
       </c>
       <c r="G11">
-        <v>0.182</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="H11">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="I11">
-        <v>0.435</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="J11">
-        <v>0.29899999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1458,31 +1492,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C12">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="F12">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="G12">
         <v>0.36099999999999999</v>
       </c>
-      <c r="D12">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="F12">
-        <v>0.44</v>
-      </c>
-      <c r="G12">
-        <v>0.308</v>
-      </c>
       <c r="H12">
-        <v>0.33300000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I12">
-        <v>0.51900000000000002</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="J12">
-        <v>0.374</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1490,31 +1524,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C13">
-        <v>0.38400000000000001</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D13">
-        <v>0.24399999999999999</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="E13">
-        <v>0.44400000000000001</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="F13">
-        <v>0.47</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="G13">
-        <v>0.28699999999999998</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="H13">
-        <v>0.44400000000000001</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I13">
-        <v>0.55500000000000005</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="J13">
-        <v>0.34599999999999997</v>
+        <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1522,31 +1556,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.44400000000000001</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="C14">
-        <v>0.44</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D14">
-        <v>0.23699999999999999</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="E14">
-        <v>0.66700000000000004</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="F14">
-        <v>0.52800000000000002</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="G14">
-        <v>0.26900000000000002</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="H14">
-        <v>0.77800000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I14">
-        <v>0.61599999999999999</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="J14">
-        <v>0.32100000000000001</v>
+        <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1554,31 +1588,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.33300000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C15">
-        <v>0.36099999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="D15">
-        <v>0.25700000000000001</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="E15">
-        <v>0.33300000000000002</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="F15">
-        <v>0.44</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="G15">
-        <v>0.308</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="H15">
-        <v>0.33300000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I15">
-        <v>0.51900000000000002</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="J15">
-        <v>0.374</v>
+        <v>0.39800000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1586,31 +1620,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.111</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C16">
-        <v>0.35199999999999998</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="D16">
-        <v>0.26200000000000001</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="E16">
-        <v>0.44400000000000001</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="F16">
-        <v>0.50900000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="G16">
-        <v>0.24399999999999999</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="H16">
-        <v>0.77800000000000002</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I16">
-        <v>0.66700000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="J16">
-        <v>0.249</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1618,31 +1652,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.111</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C17">
-        <v>0.11600000000000001</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="D17">
-        <v>2.1999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0.5</v>
       </c>
-      <c r="F17">
-        <v>0.41199999999999998</v>
+      <c r="F17" s="5">
+        <v>0.38600000000000001</v>
       </c>
       <c r="G17">
-        <v>0.158</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="H17">
-        <v>0.88900000000000001</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I17">
-        <v>0.70799999999999996</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="J17">
-        <v>0.312</v>
+        <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1650,31 +1684,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.111</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C18">
-        <v>0.19900000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="D18">
-        <v>0.14299999999999999</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="E18">
         <v>0.5</v>
       </c>
       <c r="F18">
-        <v>0.38700000000000001</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="G18">
-        <v>0.22700000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H18">
-        <v>0.88900000000000001</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I18">
-        <v>0.57399999999999995</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="J18">
-        <v>0.375</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1682,28 +1716,28 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.222</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="C19">
-        <v>0.39800000000000002</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D19">
-        <v>0.20300000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E19">
-        <v>0.55600000000000005</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="F19">
-        <v>0.64400000000000002</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="G19">
-        <v>0.10100000000000001</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H19">
-        <v>0.88900000000000001</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="I19">
-        <v>0.88900000000000001</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1714,31 +1748,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.111</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C20">
-        <v>0.16700000000000001</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D20">
-        <v>0.13200000000000001</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E20">
-        <v>0.222</v>
-      </c>
-      <c r="F20">
-        <v>0.25900000000000001</v>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.14299999999999999</v>
       </c>
       <c r="G20">
-        <v>0.13400000000000001</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="H20">
-        <v>0.33300000000000002</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I20">
-        <v>0.35199999999999998</v>
+        <v>0.187</v>
       </c>
       <c r="J20">
-        <v>0.2</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1751,7 +1785,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1836,7 +1870,7 @@
       <c r="E3">
         <v>0.22700000000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.26600000000000001</v>
       </c>
       <c r="G3">
@@ -1964,7 +1998,7 @@
       <c r="E7">
         <v>0.22700000000000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>0.36099999999999999</v>
       </c>
       <c r="G7">
@@ -1996,7 +2030,7 @@
       <c r="E8">
         <v>0.22700000000000001</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.36099999999999999</v>
       </c>
       <c r="G8">
@@ -2092,7 +2126,7 @@
       <c r="E11">
         <v>0.22700000000000001</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.26300000000000001</v>
       </c>
       <c r="G11">
@@ -2380,7 +2414,7 @@
       <c r="E20">
         <v>0.13600000000000001</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0.19500000000000001</v>
       </c>
       <c r="G20">
@@ -2406,7 +2440,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2488,7 +2522,7 @@
       <c r="D3">
         <v>0.22</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.183</v>
       </c>
       <c r="F3">
@@ -2616,7 +2650,7 @@
       <c r="D7">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.13100000000000001</v>
       </c>
       <c r="F7">
@@ -2648,7 +2682,7 @@
       <c r="D8">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.13100000000000001</v>
       </c>
       <c r="F8">
@@ -2712,7 +2746,7 @@
       <c r="D10">
         <v>0.23499999999999999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>0.34</v>
       </c>
       <c r="F10">
@@ -2744,7 +2778,7 @@
       <c r="D11">
         <v>0.22</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.183</v>
       </c>
       <c r="F11">
@@ -3032,7 +3066,7 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>0.16</v>
       </c>
       <c r="F20">
@@ -3061,7 +3095,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3146,7 +3180,7 @@
       <c r="D3">
         <v>0.247</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.216</v>
       </c>
       <c r="F3">
@@ -3274,7 +3308,7 @@
       <c r="D7">
         <v>0.19400000000000001</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.13100000000000001</v>
       </c>
       <c r="F7">
@@ -3306,7 +3340,7 @@
       <c r="D8">
         <v>0.19400000000000001</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.13100000000000001</v>
       </c>
       <c r="F8">
@@ -3370,7 +3404,7 @@
       <c r="D10">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>0.246</v>
       </c>
       <c r="F10">
@@ -3402,7 +3436,7 @@
       <c r="D11">
         <v>0.247</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.216</v>
       </c>
       <c r="F11">
@@ -3690,7 +3724,7 @@
       <c r="D20">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>0.16</v>
       </c>
       <c r="F20">

--- a/org.imt.tdl.sbfl.evaluation/evaluationData/K3FSM.Overall.xlsx
+++ b/org.imt.tdl.sbfl.evaluation/evaluationData/K3FSM.Overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\labtop\GitHub\xtdl_FaultLocalization\org.imt.tdl.sbfl.evaluation\evaluationData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AA20B8-4C7B-46A0-A58D-1DC75848DD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497F11AD-6A3F-4DDE-A0A1-AA0336CA7350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TrafficLight" sheetId="2" r:id="rId1"/>
@@ -18,18 +18,28 @@
     <sheet name="EdgeDetector" sheetId="3" r:id="rId3"/>
     <sheet name="StringToLowerCase" sheetId="4" r:id="rId4"/>
     <sheet name="StringToUpperCase" sheetId="5" r:id="rId5"/>
+    <sheet name="Average" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="36">
   <si>
     <t>SBFL Technique</t>
   </si>
@@ -117,11 +127,35 @@
   <si>
     <t>barinel</t>
   </si>
+  <si>
+    <t>TrafficLight</t>
+  </si>
+  <si>
+    <t>BitShifting</t>
+  </si>
+  <si>
+    <t>EdgeDetector</t>
+  </si>
+  <si>
+    <t>LowerCase</t>
+  </si>
+  <si>
+    <t>UpperCase</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +196,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -171,17 +223,267 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +767,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1123,7 +1425,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1785,7 +2087,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2440,7 +2742,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2490,7 +2792,7 @@
       <c r="D2">
         <v>0.23499999999999999</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>0.57799999999999996</v>
       </c>
       <c r="F2">
@@ -2522,10 +2824,10 @@
       <c r="D3">
         <v>0.22</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>0.183</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.29199999999999998</v>
       </c>
       <c r="G3">
@@ -2554,7 +2856,7 @@
       <c r="D4">
         <v>0.41499999999999998</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>0.70899999999999996</v>
       </c>
       <c r="F4">
@@ -2586,7 +2888,7 @@
       <c r="D5">
         <v>0.23499999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>0.57799999999999996</v>
       </c>
       <c r="F5">
@@ -2618,7 +2920,7 @@
       <c r="D6">
         <v>0.23499999999999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>0.57799999999999996</v>
       </c>
       <c r="F6">
@@ -2650,10 +2952,10 @@
       <c r="D7">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.24299999999999999</v>
       </c>
       <c r="G7">
@@ -2682,10 +2984,10 @@
       <c r="D8">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0.24299999999999999</v>
       </c>
       <c r="G8">
@@ -2714,7 +3016,7 @@
       <c r="D9">
         <v>0.23499999999999999</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>0.57799999999999996</v>
       </c>
       <c r="F9">
@@ -2746,10 +3048,10 @@
       <c r="D10">
         <v>0.23499999999999999</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>0.34</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.31900000000000001</v>
       </c>
       <c r="G10">
@@ -2778,10 +3080,10 @@
       <c r="D11">
         <v>0.22</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>0.183</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.29199999999999998</v>
       </c>
       <c r="G11">
@@ -2810,7 +3112,7 @@
       <c r="D12">
         <v>0.23499999999999999</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>0.57799999999999996</v>
       </c>
       <c r="F12">
@@ -2842,7 +3144,7 @@
       <c r="D13">
         <v>0.21199999999999999</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>0.57799999999999996</v>
       </c>
       <c r="F13">
@@ -2874,7 +3176,7 @@
       <c r="D14">
         <v>0.20300000000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>0.57799999999999996</v>
       </c>
       <c r="F14">
@@ -2906,7 +3208,7 @@
       <c r="D15">
         <v>0.23499999999999999</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>0.57799999999999996</v>
       </c>
       <c r="F15">
@@ -2938,7 +3240,7 @@
       <c r="D16">
         <v>0.23499999999999999</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>0.57799999999999996</v>
       </c>
       <c r="F16">
@@ -2970,7 +3272,7 @@
       <c r="D17">
         <v>4.7E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>0.5</v>
       </c>
       <c r="F17">
@@ -3002,7 +3304,7 @@
       <c r="D18">
         <v>0.23</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>0.57099999999999995</v>
       </c>
       <c r="F18">
@@ -3034,7 +3336,7 @@
       <c r="D19">
         <v>0.21099999999999999</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>0.77600000000000002</v>
       </c>
       <c r="F19">
@@ -3066,10 +3368,10 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="5">
         <v>0.16</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0.214</v>
       </c>
       <c r="G20">
@@ -3094,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0029336B-2037-4498-A057-D28DC104F2ED}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3148,7 +3450,7 @@
       <c r="D2">
         <v>0.25900000000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>0.57099999999999995</v>
       </c>
       <c r="F2">
@@ -3180,10 +3482,10 @@
       <c r="D3">
         <v>0.247</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>0.216</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.315</v>
       </c>
       <c r="G3">
@@ -3212,7 +3514,7 @@
       <c r="D4">
         <v>0.41</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>0.78400000000000003</v>
       </c>
       <c r="F4">
@@ -3244,7 +3546,7 @@
       <c r="D5">
         <v>0.25900000000000001</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>0.57099999999999995</v>
       </c>
       <c r="F5">
@@ -3276,7 +3578,7 @@
       <c r="D6">
         <v>0.25900000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>0.57099999999999995</v>
       </c>
       <c r="F6">
@@ -3308,10 +3610,10 @@
       <c r="D7">
         <v>0.19400000000000001</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.254</v>
       </c>
       <c r="G7">
@@ -3340,10 +3642,10 @@
       <c r="D8">
         <v>0.19400000000000001</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>0.254</v>
       </c>
       <c r="G8">
@@ -3372,7 +3674,7 @@
       <c r="D9">
         <v>0.25900000000000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>0.57099999999999995</v>
       </c>
       <c r="F9">
@@ -3404,10 +3706,10 @@
       <c r="D10">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>0.246</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>0.33700000000000002</v>
       </c>
       <c r="G10">
@@ -3436,10 +3738,10 @@
       <c r="D11">
         <v>0.247</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>0.216</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.315</v>
       </c>
       <c r="G11">
@@ -3468,7 +3770,7 @@
       <c r="D12">
         <v>0.25900000000000001</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>0.57099999999999995</v>
       </c>
       <c r="F12">
@@ -3500,7 +3802,7 @@
       <c r="D13">
         <v>0.23200000000000001</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>0.57099999999999995</v>
       </c>
       <c r="F13">
@@ -3532,7 +3834,7 @@
       <c r="D14">
         <v>0.23300000000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>0.57499999999999996</v>
       </c>
       <c r="F14">
@@ -3564,7 +3866,7 @@
       <c r="D15">
         <v>0.25900000000000001</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>0.57099999999999995</v>
       </c>
       <c r="F15">
@@ -3596,7 +3898,7 @@
       <c r="D16">
         <v>0.25900000000000001</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>0.57099999999999995</v>
       </c>
       <c r="F16">
@@ -3628,7 +3930,7 @@
       <c r="D17">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>0.504</v>
       </c>
       <c r="F17">
@@ -3660,7 +3962,7 @@
       <c r="D18">
         <v>0.254</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>0.56000000000000005</v>
       </c>
       <c r="F18">
@@ -3692,7 +3994,7 @@
       <c r="D19">
         <v>0.185</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>0.75700000000000001</v>
       </c>
       <c r="F19">
@@ -3724,10 +4026,10 @@
       <c r="D20">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="5">
         <v>0.16</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0.20599999999999999</v>
       </c>
       <c r="G20">
@@ -3746,4 +4048,526 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AADD120-CDE1-4B5B-8E16-02D253F94558}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="13"/>
+      <c r="B1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.44</v>
+      </c>
+      <c r="C3" s="20">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.43</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G3" s="7">
+        <f>AVERAGE(B3:F3)</f>
+        <v>0.44820000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.222</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.315</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" ref="G4:G21" si="0">AVERAGE(B4:F4)</f>
+        <v>0.2792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="26">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.58660000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="26">
+        <v>0.44</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0.437</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0.43</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.44580000000000003</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="26">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.47820000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="29">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F8" s="31">
+        <v>0.254</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.31140000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="29">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0.35</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0.254</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.31140000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="26">
+        <v>0.44</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0.439</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0.43</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.44619999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="26">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.38439999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="26">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.221</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.315</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.27839999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="26">
+        <v>0.44</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.437</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.43</v>
+      </c>
+      <c r="F13" s="28">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.44580000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="26">
+        <v>0.47</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.439</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.49359999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="26">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.54960000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="26">
+        <v>0.44</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0.43</v>
+      </c>
+      <c r="F16" s="28">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.44939999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="26">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.51479999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="26">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="C18" s="33">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.3866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="34">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="C19" s="27">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E19" s="27">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F19" s="28">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.40680000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="26">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="C20" s="27">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.73080000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="35">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="C21" s="36">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D21" s="36">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E21" s="36">
+        <v>0.214</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
+        <v>0.20339999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>